--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll3-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H2">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I2">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J2">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>8.986149296973334</v>
+        <v>76.95790954624789</v>
       </c>
       <c r="R2">
-        <v>80.87534367276001</v>
+        <v>692.621185916231</v>
       </c>
       <c r="S2">
-        <v>0.07072661554544923</v>
+        <v>0.223058438722721</v>
       </c>
       <c r="T2">
-        <v>0.07072661554544923</v>
+        <v>0.223058438722721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H3">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I3">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J3">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>1.188164751613333</v>
+        <v>11.73682094242333</v>
       </c>
       <c r="R3">
-        <v>10.69348276452</v>
+        <v>105.63138848181</v>
       </c>
       <c r="S3">
-        <v>0.009351599758120485</v>
+        <v>0.03401855599276377</v>
       </c>
       <c r="T3">
-        <v>0.009351599758120485</v>
+        <v>0.03401855599276378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H4">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I4">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J4">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>2.743927541211999</v>
+        <v>55.49777937598022</v>
       </c>
       <c r="R4">
-        <v>24.695347870908</v>
+        <v>499.480014383822</v>
       </c>
       <c r="S4">
-        <v>0.0215964259971995</v>
+        <v>0.1608573841619861</v>
       </c>
       <c r="T4">
-        <v>0.0215964259971995</v>
+        <v>0.1608573841619861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H5">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I5">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J5">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>1.422970289344889</v>
+        <v>14.05462964790878</v>
       </c>
       <c r="R5">
-        <v>12.806732604104</v>
+        <v>126.491666831179</v>
       </c>
       <c r="S5">
-        <v>0.01119966620418717</v>
+        <v>0.04073660218388099</v>
       </c>
       <c r="T5">
-        <v>0.01119966620418718</v>
+        <v>0.040736602183881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>2.951322</v>
       </c>
       <c r="I6">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J6">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>66.89996699386002</v>
+        <v>58.00049783918867</v>
       </c>
       <c r="R6">
-        <v>602.0997029447401</v>
+        <v>522.0044805526981</v>
       </c>
       <c r="S6">
-        <v>0.5265445842494131</v>
+        <v>0.168111381525705</v>
       </c>
       <c r="T6">
-        <v>0.5265445842494131</v>
+        <v>0.1681113815257051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>2.951322</v>
       </c>
       <c r="I7">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J7">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
         <v>8.84563343422</v>
@@ -883,10 +883,10 @@
         <v>79.61070090798</v>
       </c>
       <c r="S7">
-        <v>0.06962066781694448</v>
+        <v>0.02563860160682876</v>
       </c>
       <c r="T7">
-        <v>0.06962066781694448</v>
+        <v>0.02563860160682877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>2.951322</v>
       </c>
       <c r="I8">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J8">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>20.427955943538</v>
+        <v>41.82674466803066</v>
       </c>
       <c r="R8">
-        <v>183.851603491842</v>
+        <v>376.440702012276</v>
       </c>
       <c r="S8">
-        <v>0.1607807903753186</v>
+        <v>0.1212326116641469</v>
       </c>
       <c r="T8">
-        <v>0.1607807903753187</v>
+        <v>0.1212326116641469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>2.951322</v>
       </c>
       <c r="I9">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J9">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>10.59371063671067</v>
+        <v>10.59248518223133</v>
       </c>
       <c r="R9">
-        <v>95.34339573039601</v>
+        <v>95.332366640082</v>
       </c>
       <c r="S9">
-        <v>0.08337912877262481</v>
+        <v>0.03070175919373416</v>
       </c>
       <c r="T9">
-        <v>0.08337912877262482</v>
+        <v>0.03070175919373416</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H10">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I10">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J10">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>3.725883070303334</v>
+        <v>11.49267180448689</v>
       </c>
       <c r="R10">
-        <v>33.53294763273001</v>
+        <v>103.434046240382</v>
       </c>
       <c r="S10">
-        <v>0.02932503019612627</v>
+        <v>0.03331090260346693</v>
       </c>
       <c r="T10">
-        <v>0.02932503019612627</v>
+        <v>0.03331090260346695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H11">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I11">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J11">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>0.4926429315233333</v>
+        <v>1.752742920313333</v>
       </c>
       <c r="R11">
-        <v>4.43378638371</v>
+        <v>15.77468628282</v>
       </c>
       <c r="S11">
-        <v>0.003877408005091735</v>
+        <v>0.005080232838866869</v>
       </c>
       <c r="T11">
-        <v>0.003877408005091734</v>
+        <v>0.005080232838866871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H12">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I12">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J12">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>1.137701237101</v>
+        <v>8.287877984298222</v>
       </c>
       <c r="R12">
-        <v>10.239311133909</v>
+        <v>74.59090185868401</v>
       </c>
       <c r="S12">
-        <v>0.008954420335429598</v>
+        <v>0.02402197687543744</v>
       </c>
       <c r="T12">
-        <v>0.008954420335429598</v>
+        <v>0.02402197687543745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H13">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I13">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J13">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>0.5899992015935557</v>
+        <v>2.098877773959777</v>
       </c>
       <c r="R13">
-        <v>5.309992814342</v>
+        <v>18.889899965638</v>
       </c>
       <c r="S13">
-        <v>0.004643662744094873</v>
+        <v>0.006083486442000346</v>
       </c>
       <c r="T13">
-        <v>0.004643662744094873</v>
+        <v>0.006083486442000349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.085542</v>
+      </c>
+      <c r="I14">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J14">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>58.95713633333333</v>
+      </c>
+      <c r="N14">
+        <v>176.871409</v>
+      </c>
+      <c r="O14">
+        <v>0.4863146960083892</v>
+      </c>
+      <c r="P14">
+        <v>0.4863146960083893</v>
+      </c>
+      <c r="Q14">
+        <v>21.33348256318644</v>
+      </c>
+      <c r="R14">
+        <v>192.001343068678</v>
+      </c>
+      <c r="S14">
+        <v>0.06183397315649627</v>
+      </c>
+      <c r="T14">
+        <v>0.06183397315649628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.085542</v>
+      </c>
+      <c r="I15">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J15">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.991529999999999</v>
+      </c>
+      <c r="N15">
+        <v>26.97459</v>
+      </c>
+      <c r="O15">
+        <v>0.07416766570679004</v>
+      </c>
+      <c r="P15">
+        <v>0.07416766570679005</v>
+      </c>
+      <c r="Q15">
+        <v>3.253561153086666</v>
+      </c>
+      <c r="R15">
+        <v>29.28205037778</v>
+      </c>
+      <c r="S15">
+        <v>0.009430275268330636</v>
+      </c>
+      <c r="T15">
+        <v>0.009430275268330637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.085542</v>
+      </c>
+      <c r="I16">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J16">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>42.51661933333333</v>
+      </c>
+      <c r="N16">
+        <v>127.549858</v>
+      </c>
+      <c r="O16">
+        <v>0.3507032073181665</v>
+      </c>
+      <c r="P16">
+        <v>0.3507032073181665</v>
+      </c>
+      <c r="Q16">
+        <v>15.38452532811511</v>
+      </c>
+      <c r="R16">
+        <v>138.460727953036</v>
+      </c>
+      <c r="S16">
+        <v>0.04459123461659601</v>
+      </c>
+      <c r="T16">
+        <v>0.04459123461659602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.085542</v>
+      </c>
+      <c r="I17">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J17">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.76719366666667</v>
+      </c>
+      <c r="N17">
+        <v>32.301581</v>
+      </c>
+      <c r="O17">
+        <v>0.0888144309666542</v>
+      </c>
+      <c r="P17">
+        <v>0.08881443096665421</v>
+      </c>
+      <c r="Q17">
+        <v>3.896080315766889</v>
+      </c>
+      <c r="R17">
+        <v>35.064722841902</v>
+      </c>
+      <c r="S17">
+        <v>0.01129258314703871</v>
+      </c>
+      <c r="T17">
+        <v>0.01129258314703871</v>
       </c>
     </row>
   </sheetData>
